--- a/RTM.xlsx
+++ b/RTM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\JavaTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B682BA-B946-439D-8F38-B0F08F8F3777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC700435-5D4F-4625-B174-496176F18E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12552" activeTab="2" xr2:uid="{0AA9D21D-2CFB-48C6-85A2-7E9CC2EA4FB7}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12552" xr2:uid="{0AA9D21D-2CFB-48C6-85A2-7E9CC2EA4FB7}"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="107">
   <si>
     <t>Users should be able to open a new User account with the Planetarium</t>
   </si>
@@ -346,10 +346,19 @@
     <t>Check-in</t>
   </si>
   <si>
-    <t>Release</t>
-  </si>
-  <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Test Cycle 1 Complete + Report</t>
+  </si>
+  <si>
+    <t>In-Progress</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>To do</t>
   </si>
 </sst>
 </file>
@@ -939,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274D401D-635C-4494-8149-60E975934667}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1686,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70BF23C-6DF2-4EBF-9E8D-8D2C07A7822A}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1705,7 +1714,7 @@
         <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1715,13 +1724,30 @@
       <c r="B2" s="28">
         <v>45587</v>
       </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="28">
+        <v>45596</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="28">
         <v>45597</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/RTM.xlsx
+++ b/RTM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\JavaTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC700435-5D4F-4625-B174-496176F18E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A5EB5C-9D16-4A30-A7AB-AEFB9BD1C468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12552" xr2:uid="{0AA9D21D-2CFB-48C6-85A2-7E9CC2EA4FB7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="108">
   <si>
     <t>Users should be able to open a new User account with the Planetarium</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>To do</t>
+  </si>
+  <si>
+    <t>Passed?</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -526,11 +529,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -612,11 +654,52 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -627,6 +710,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -946,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274D401D-635C-4494-8149-60E975934667}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1014,559 +1114,600 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="29" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="30" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="30" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="30" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="30" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="30" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="30" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H4" s="19" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1"/>
-      <c r="B4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G5" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
-      <c r="B6" s="13"/>
+      <c r="B6" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="20"/>
-      <c r="D6" s="27" t="s">
-        <v>22</v>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H9" s="22" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G11" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H11" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="15" t="s">
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C12" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E12" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G12" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H12" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="15" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C13" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E13" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G13" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H13" s="22" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="G14" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D16" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G16" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H16" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="16" t="s">
+    <row r="17" spans="2:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D17" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E17" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G17" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H17" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="17" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D18" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E18" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G18" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H18" s="24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="17" t="s">
+    <row r="19" spans="2:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E19" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G19" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H19" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="17" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C20" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D20" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E20" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G20" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H20" s="24" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="G21" s="22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E23" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G23" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H23" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="17" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E24" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G24" s="22" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E24" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G26" s="22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" s="23" t="s">
+    <row r="27" spans="2:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E27" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F27" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G27" s="23" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E27" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F29" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G29" s="24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="E29" s="24" t="s">
+    <row r="30" spans="2:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="E30" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F30" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G30" s="24" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E30" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" s="24" t="s">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E32" s="24" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E34" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G34" s="24" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B$3:$H$3=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C3" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/RTM.xlsx
+++ b/RTM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\JavaTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A5EB5C-9D16-4A30-A7AB-AEFB9BD1C468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2499E173-00E0-4A4F-AF19-7C77353316AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12552" xr2:uid="{0AA9D21D-2CFB-48C6-85A2-7E9CC2EA4FB7}"/>
   </bookViews>
@@ -654,7 +654,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
@@ -662,7 +662,7 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
@@ -677,25 +677,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1048,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274D401D-635C-4494-8149-60E975934667}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/RTM.xlsx
+++ b/RTM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\JavaTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2499E173-00E0-4A4F-AF19-7C77353316AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2456AB2D-B0D1-476A-8717-F8DD287F8F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12552" xr2:uid="{0AA9D21D-2CFB-48C6-85A2-7E9CC2EA4FB7}"/>
+    <workbookView xWindow="10368" yWindow="0" windowWidth="10368" windowHeight="12360" xr2:uid="{0AA9D21D-2CFB-48C6-85A2-7E9CC2EA4FB7}"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -1034,7 +1034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274D401D-635C-4494-8149-60E975934667}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
